--- a/biology/Botanique/Cyanophora_paradoxa/Cyanophora_paradoxa.xlsx
+++ b/biology/Botanique/Cyanophora_paradoxa/Cyanophora_paradoxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanophora paradoxa est une algue d'eau douce unicellulaire de la famille des Glaucocystaceae utilisée comme organisme modèle. Son génome est entièrement séquencé en 2012.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanophora paradoxa est une espèce unicellulaire d'algues d'eau douce. Elle est l'espèce type du genre Cyanophora.
-Cyanophora paradoxa a deux cyanelles ou chloroplastes où la fixation de l'azote se produit en même temps que la fonction primaire de la photosynthèse[1]. Le génome choroplastique[Quoi ?] de la souche LB 555 de Cyanophora paradoxa a été séquencé et publié en 1995[2],[3]. Le génome nucléaire a aussi été séquencé et publié en 2012[4].
+Cyanophora paradoxa a deux cyanelles ou chloroplastes où la fixation de l'azote se produit en même temps que la fonction primaire de la photosynthèse. Le génome choroplastique[Quoi ?] de la souche LB 555 de Cyanophora paradoxa a été séquencé et publié en 1995,. Le génome nucléaire a aussi été séquencé et publié en 2012.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyanophora paradoxa est utilisée comme organisme modèle[1],[2] en raison de sa structure qui la fait qualifier de fossile vivant[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyanophora paradoxa est utilisée comme organisme modèle, en raison de sa structure qui la fait qualifier de fossile vivant.
 </t>
         </is>
       </c>
